--- a/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-12,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,34</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>66,36%</t>
+          <t>-5,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-15,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 10,24</t>
+          <t>-21,54; -3,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 17,54</t>
+          <t>-19,49; -0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 11,66</t>
+          <t>-12,82; 8,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 17,96</t>
+          <t>-19,62; -4,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 22,95</t>
+          <t>-17,35; 20,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 83,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 145,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 63,43</t>
+          <t>-23,16; -4,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 132,63</t>
+          <t>-21,78; -1,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,05; 118,86</t>
+          <t>-15,54; 12,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; -5,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-23,07; 42,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,85</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,38%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>-9,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-14,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 13,44</t>
+          <t>-16,99; -2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 10,52</t>
+          <t>-11,21; 0,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,25</t>
+          <t>-14,14; -1,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,4</t>
+          <t>-16,73; -5,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 8,43</t>
+          <t>-14,76; 2,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,04; 93,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 78,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 63,83</t>
+          <t>-19,73; -3,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 97,86</t>
+          <t>-12,81; 0,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 31,51</t>
+          <t>-17,33; -1,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,36; -7,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-19,47; 2,93</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>-11,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>-7,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-11,71%</t>
+          <t>-8,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-8,54%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,02%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,85</t>
+          <t>-16,52; -0,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,1</t>
+          <t>-13,04; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 11,31</t>
+          <t>-12,82; -1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 12,51</t>
+          <t>-12,3; -0,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 4,53</t>
+          <t>-11,96; 4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 66,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 46,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 75,18</t>
+          <t>-19,03; -0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 61,45</t>
+          <t>-14,59; 1,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 16,96</t>
+          <t>-15,32; -1,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-15,63; -0,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,71; 6,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>-4,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,91</t>
+          <t>-9,12; -0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,51</t>
+          <t>-10,88; 0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,36</t>
+          <t>-10,43; 3,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,56</t>
+          <t>-13,9; 1,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,07; 64,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 55,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 51,71</t>
+          <t>-10,98; -0,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 74,79</t>
+          <t>-12,99; 0,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 36,45</t>
+          <t>-12,22; 4,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 2,02</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,83</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,96</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,98</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-5,67</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-12,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; -3,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; -2,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; -2,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,59; -6,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; -0,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,74; -4,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; -3,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; -2,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; -8,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; -0,41</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
